--- a/biology/Botanique/Jardin_botanique_d'Ajuda/Jardin_botanique_d'Ajuda.xlsx
+++ b/biology/Botanique/Jardin_botanique_d'Ajuda/Jardin_botanique_d'Ajuda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Ajuda</t>
+          <t>Jardin_botanique_d'Ajuda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique d'Ajuda est situé dans la paroisse d'Ajuda, à Lisbonne[1]. Fondé en 1768, il est le plus ancien jardin botanique du Portugal. Il est enregistré auprès du Botanic Gardens Conservation International et présente des programmes de conservation pour l'Agenda International pour la Conservation dans les Jardins Botaniques.
-Le jardin botanique d'Ajuda est classé immeuble d'intérêt public depuis 1944[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique d'Ajuda est situé dans la paroisse d'Ajuda, à Lisbonne. Fondé en 1768, il est le plus ancien jardin botanique du Portugal. Il est enregistré auprès du Botanic Gardens Conservation International et présente des programmes de conservation pour l'Agenda International pour la Conservation dans les Jardins Botaniques.
+Le jardin botanique d'Ajuda est classé immeuble d'intérêt public depuis 1944.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Ajuda</t>
+          <t>Jardin_botanique_d'Ajuda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Portugal, le plus ancien jardin botanique se trouve à Ajuda. Son histoire remonte à 1755, après le tremblement de terre de Lisbonne, au cours duquel le roi José Ier a transféré sa cour de la périphérie de la capitale à Ajuda. Cet emplacement a été choisi parce que cette zone n'a pas été affectée par le tremblement de terre. En 1768, le Jardin Botanique Royal voit le jour. Le botaniste italien Domenico Vandelli fut le créateur de ce jardin, qui transféra le jardin botanique de sa ville natale, Padoue, dans la capitale portugaise. Cependant, Vandelli n'a pas débuté seul les travaux de construction du jardin, mais a eu l'aide précieuse de Júlio Mattiazi, le premier jardinier du Jardin botanique de Padoue.
 Ce jardin, qui avait entre autres objectifs de procurer des loisirs à la famille royale et d'instruire les princes et petits-fils du monarque, possédait déjà une précieuse collection d'environ 5000 espèces à la fin du XVIIIe siècle.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Ajuda</t>
+          <t>Jardin_botanique_d'Ajuda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Le jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce jardin à l'italienne sur deux niveaux est une oasis au cœur de Lisbonne. Il a une superficie d'environ 4 ha[2] et son accès est payant.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jardin à l'italienne sur deux niveaux est une oasis au cœur de Lisbonne. Il a une superficie d'environ 4 ha et son accès est payant.
 Le jardin comprend des arbres tropicaux et l'une des plus grandes haies de buis d'Europe, d'environ 2 km de long, dessinant divers motifs géométriques autour des parterres de fleurs.
 Les principales attractions du jardin sont :
 le Dragonnier - Dracaena draco - le plus vieil arbre du jardin, âgé d'environ 400 ans, originaire de Madère ;
